--- a/BalanceSheet/CMS_bal.xlsx
+++ b/BalanceSheet/CMS_bal.xlsx
@@ -507,16 +507,16 @@
         <v>407000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>62000000.0</v>
+        <v>576000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-133000000.0</v>
+        <v>639000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-72000000.0</v>
+        <v>506000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>171000000.0</v>
+        <v>434000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>605000000.0</v>
@@ -1833,16 +1833,16 @@
         <v>545000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>25000000.0</v>
+        <v>678000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>6000000.0</v>
+        <v>667000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>77000000.0</v>
+        <v>635000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-54000000.0</v>
+        <v>497000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>635000000.0</v>
@@ -3161,16 +3161,16 @@
         <v>1926000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>30000000.0</v>
+        <v>1978000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>45000000.0</v>
+        <v>1937000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>28000000.0</v>
+        <v>1881000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>67000000.0</v>
+        <v>1841000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1655000000.0</v>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>14594000000.0</v>
+        <v>16100000000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>15045000000.0</v>
@@ -4697,7 +4697,7 @@
         <v>13476000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>13136000000.0</v>
+        <v>13000000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>12763000000.0</v>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>15118000000.0</v>
+        <v>16624000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>15230000000.0</v>
@@ -4824,7 +4824,7 @@
         <v>14337000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>13293000000.0</v>
+        <v>13157000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>13195000000.0</v>
